--- a/po_analysis_by_asin/B0927959GD_po_data.xlsx
+++ b/po_analysis_by_asin/B0927959GD_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,71 +452,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>189</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45334</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45376</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45390</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45397</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45404</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45411</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45425</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
@@ -524,79 +524,79 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45432</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45439</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45446</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>202</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45453</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>156</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45460</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45467</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>170</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45474</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45481</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45488</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45537</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>4</v>
@@ -604,33 +604,281 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45614</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45621</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45628</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>88</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45635</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B55" t="n">
         <v>8</v>
       </c>
     </row>
@@ -645,7 +893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,81 +915,169 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>189</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>144</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>172</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>566</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>384</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45597</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45627</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B22" t="n">
         <v>96</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0927959GD_po_data.xlsx
+++ b/po_analysis_by_asin/B0927959GD_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -909,7 +910,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1079,6 +1080,915 @@
       </c>
       <c r="B22" t="n">
         <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-65.28181367163427</v>
+      </c>
+      <c r="D2" t="n">
+        <v>74.0847763273791</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-64.62105552672006</v>
+      </c>
+      <c r="D3" t="n">
+        <v>70.46036673757422</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-59.56060092631959</v>
+      </c>
+      <c r="D4" t="n">
+        <v>71.53540092137062</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-61.63569834383136</v>
+      </c>
+      <c r="D5" t="n">
+        <v>73.86807469086288</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-59.60773313406054</v>
+      </c>
+      <c r="D6" t="n">
+        <v>73.48297612634865</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-63.09722005794026</v>
+      </c>
+      <c r="D7" t="n">
+        <v>72.22597556135361</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-57.27728654021232</v>
+      </c>
+      <c r="D8" t="n">
+        <v>75.66855896049529</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-56.18797111989303</v>
+      </c>
+      <c r="D9" t="n">
+        <v>80.2253572838858</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-55.39682218101226</v>
+      </c>
+      <c r="D10" t="n">
+        <v>78.43385609209632</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-54.02798924953189</v>
+      </c>
+      <c r="D11" t="n">
+        <v>73.75900567936324</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-52.17737579312664</v>
+      </c>
+      <c r="D12" t="n">
+        <v>82.81019034625507</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-45.49904764809901</v>
+      </c>
+      <c r="D13" t="n">
+        <v>84.13563921222048</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-48.42198239338045</v>
+      </c>
+      <c r="D14" t="n">
+        <v>86.15898256629883</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-47.09371819143753</v>
+      </c>
+      <c r="D15" t="n">
+        <v>87.25620737860071</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>22</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-43.02047714252994</v>
+      </c>
+      <c r="D16" t="n">
+        <v>86.35429072184765</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>23</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-41.22751276521442</v>
+      </c>
+      <c r="D17" t="n">
+        <v>90.47717844141401</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>24</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-41.74389874319579</v>
+      </c>
+      <c r="D18" t="n">
+        <v>95.25360401624272</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-42.51503244873866</v>
+      </c>
+      <c r="D19" t="n">
+        <v>91.15622805058612</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>26</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-41.02365396066121</v>
+      </c>
+      <c r="D20" t="n">
+        <v>88.00285007675129</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>26</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-39.42874052424613</v>
+      </c>
+      <c r="D21" t="n">
+        <v>94.51086558380278</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>27</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-40.48261188923593</v>
+      </c>
+      <c r="D22" t="n">
+        <v>93.01467670242556</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>28</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-33.9570665493616</v>
+      </c>
+      <c r="D23" t="n">
+        <v>92.64828313783755</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>29</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-33.63269139541328</v>
+      </c>
+      <c r="D24" t="n">
+        <v>98.39970051705647</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>31</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-37.29502044554864</v>
+      </c>
+      <c r="D25" t="n">
+        <v>98.00832298852691</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>32</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-32.21429094870361</v>
+      </c>
+      <c r="D26" t="n">
+        <v>107.6921133523559</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>33</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-38.12970523791322</v>
+      </c>
+      <c r="D27" t="n">
+        <v>94.54010196235446</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>34</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-30.81913415069404</v>
+      </c>
+      <c r="D28" t="n">
+        <v>98.26848875126881</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>35</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-31.01217754231835</v>
+      </c>
+      <c r="D29" t="n">
+        <v>108.6347826308741</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>36</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-30.49235340279209</v>
+      </c>
+      <c r="D30" t="n">
+        <v>102.9487808956994</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>38</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-30.23083586470615</v>
+      </c>
+      <c r="D31" t="n">
+        <v>107.3409166031561</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>39</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-30.35606462836303</v>
+      </c>
+      <c r="D32" t="n">
+        <v>109.3147430975068</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>41</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-31.02179409760469</v>
+      </c>
+      <c r="D33" t="n">
+        <v>104.1576471984174</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>46</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-24.51241379197113</v>
+      </c>
+      <c r="D34" t="n">
+        <v>116.047044328333</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>51</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-9.184015737809762</v>
+      </c>
+      <c r="D35" t="n">
+        <v>117.0135003587168</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>52</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-17.61786820833674</v>
+      </c>
+      <c r="D36" t="n">
+        <v>116.8314810150924</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>53</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-17.57403782060511</v>
+      </c>
+      <c r="D37" t="n">
+        <v>118.0028512082258</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>54</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-14.9665779676802</v>
+      </c>
+      <c r="D38" t="n">
+        <v>125.0548046005801</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>54</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-11.95238873996949</v>
+      </c>
+      <c r="D39" t="n">
+        <v>121.5751688052979</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>55</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-9.672182541703661</v>
+      </c>
+      <c r="D40" t="n">
+        <v>116.1979755336844</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>57</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-9.891720196945494</v>
+      </c>
+      <c r="D41" t="n">
+        <v>123.7649168243463</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>58</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-11.29081800858543</v>
+      </c>
+      <c r="D42" t="n">
+        <v>124.1621458594554</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>58</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-6.636912765887504</v>
+      </c>
+      <c r="D43" t="n">
+        <v>129.4023938469066</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>59</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-9.439973593954162</v>
+      </c>
+      <c r="D44" t="n">
+        <v>126.3139642217555</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>60</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-4.694744908005594</v>
+      </c>
+      <c r="D45" t="n">
+        <v>124.8272430951001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>61</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-6.522013724947867</v>
+      </c>
+      <c r="D46" t="n">
+        <v>130.5346266668779</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>62</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-8.756987495648501</v>
+      </c>
+      <c r="D47" t="n">
+        <v>124.7777774517368</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>63</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-4.150890099717522</v>
+      </c>
+      <c r="D48" t="n">
+        <v>122.1038754121277</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>63</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-3.640570599332932</v>
+      </c>
+      <c r="D49" t="n">
+        <v>127.3912473686233</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>64</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-5.110381314748742</v>
+      </c>
+      <c r="D50" t="n">
+        <v>135.7411233796234</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>70</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6.11513133627529</v>
+      </c>
+      <c r="D51" t="n">
+        <v>131.2550253383951</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>79</v>
+      </c>
+      <c r="C52" t="n">
+        <v>10.7251693322595</v>
+      </c>
+      <c r="D52" t="n">
+        <v>145.9299625420225</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>80</v>
+      </c>
+      <c r="C53" t="n">
+        <v>18.01614202416655</v>
+      </c>
+      <c r="D53" t="n">
+        <v>151.087284927588</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>81</v>
+      </c>
+      <c r="C54" t="n">
+        <v>12.09844661493914</v>
+      </c>
+      <c r="D54" t="n">
+        <v>142.700126388673</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>81</v>
+      </c>
+      <c r="C55" t="n">
+        <v>13.73843893004617</v>
+      </c>
+      <c r="D55" t="n">
+        <v>151.0994423346184</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>82</v>
+      </c>
+      <c r="C56" t="n">
+        <v>15.81345654696508</v>
+      </c>
+      <c r="D56" t="n">
+        <v>146.7344620146449</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>83</v>
+      </c>
+      <c r="C57" t="n">
+        <v>15.49251450104773</v>
+      </c>
+      <c r="D57" t="n">
+        <v>150.0732993435449</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>84</v>
+      </c>
+      <c r="C58" t="n">
+        <v>18.80795236518971</v>
+      </c>
+      <c r="D58" t="n">
+        <v>153.32156879878</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>85</v>
+      </c>
+      <c r="C59" t="n">
+        <v>15.65951206529355</v>
+      </c>
+      <c r="D59" t="n">
+        <v>146.9287290879855</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>85</v>
+      </c>
+      <c r="C60" t="n">
+        <v>18.80461498607993</v>
+      </c>
+      <c r="D60" t="n">
+        <v>151.4064603193542</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>86</v>
+      </c>
+      <c r="C61" t="n">
+        <v>16.81090055113378</v>
+      </c>
+      <c r="D61" t="n">
+        <v>155.5834934161426</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>87</v>
+      </c>
+      <c r="C62" t="n">
+        <v>21.29948982718029</v>
+      </c>
+      <c r="D62" t="n">
+        <v>150.5294107107808</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>88</v>
+      </c>
+      <c r="C63" t="n">
+        <v>19.26758406067586</v>
+      </c>
+      <c r="D63" t="n">
+        <v>153.9812877518465</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0927959GD_po_data.xlsx
+++ b/po_analysis_by_asin/B0927959GD_po_data.xlsx
@@ -1093,7 +1093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1112,16 +1112,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1130,12 +1120,6 @@
       <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>-65.28181367163427</v>
-      </c>
-      <c r="D2" t="n">
-        <v>74.0847763273791</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1144,12 +1128,6 @@
       <c r="B3" t="n">
         <v>5</v>
       </c>
-      <c r="C3" t="n">
-        <v>-64.62105552672006</v>
-      </c>
-      <c r="D3" t="n">
-        <v>70.46036673757422</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1158,12 +1136,6 @@
       <c r="B4" t="n">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
-        <v>-59.56060092631959</v>
-      </c>
-      <c r="D4" t="n">
-        <v>71.53540092137062</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1172,12 +1144,6 @@
       <c r="B5" t="n">
         <v>7</v>
       </c>
-      <c r="C5" t="n">
-        <v>-61.63569834383136</v>
-      </c>
-      <c r="D5" t="n">
-        <v>73.86807469086288</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1186,12 +1152,6 @@
       <c r="B6" t="n">
         <v>8</v>
       </c>
-      <c r="C6" t="n">
-        <v>-59.60773313406054</v>
-      </c>
-      <c r="D6" t="n">
-        <v>73.48297612634865</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1200,12 +1160,6 @@
       <c r="B7" t="n">
         <v>8</v>
       </c>
-      <c r="C7" t="n">
-        <v>-63.09722005794026</v>
-      </c>
-      <c r="D7" t="n">
-        <v>72.22597556135361</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1214,12 +1168,6 @@
       <c r="B8" t="n">
         <v>9</v>
       </c>
-      <c r="C8" t="n">
-        <v>-57.27728654021232</v>
-      </c>
-      <c r="D8" t="n">
-        <v>75.66855896049529</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1228,12 +1176,6 @@
       <c r="B9" t="n">
         <v>11</v>
       </c>
-      <c r="C9" t="n">
-        <v>-56.18797111989303</v>
-      </c>
-      <c r="D9" t="n">
-        <v>80.2253572838858</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1242,12 +1184,6 @@
       <c r="B10" t="n">
         <v>12</v>
       </c>
-      <c r="C10" t="n">
-        <v>-55.39682218101226</v>
-      </c>
-      <c r="D10" t="n">
-        <v>78.43385609209632</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1256,12 +1192,6 @@
       <c r="B11" t="n">
         <v>13</v>
       </c>
-      <c r="C11" t="n">
-        <v>-54.02798924953189</v>
-      </c>
-      <c r="D11" t="n">
-        <v>73.75900567936324</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1270,12 +1200,6 @@
       <c r="B12" t="n">
         <v>17</v>
       </c>
-      <c r="C12" t="n">
-        <v>-52.17737579312664</v>
-      </c>
-      <c r="D12" t="n">
-        <v>82.81019034625507</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1284,12 +1208,6 @@
       <c r="B13" t="n">
         <v>19</v>
       </c>
-      <c r="C13" t="n">
-        <v>-45.49904764809901</v>
-      </c>
-      <c r="D13" t="n">
-        <v>84.13563921222048</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1298,12 +1216,6 @@
       <c r="B14" t="n">
         <v>20</v>
       </c>
-      <c r="C14" t="n">
-        <v>-48.42198239338045</v>
-      </c>
-      <c r="D14" t="n">
-        <v>86.15898256629883</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1312,12 +1224,6 @@
       <c r="B15" t="n">
         <v>22</v>
       </c>
-      <c r="C15" t="n">
-        <v>-47.09371819143753</v>
-      </c>
-      <c r="D15" t="n">
-        <v>87.25620737860071</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1326,12 +1232,6 @@
       <c r="B16" t="n">
         <v>22</v>
       </c>
-      <c r="C16" t="n">
-        <v>-43.02047714252994</v>
-      </c>
-      <c r="D16" t="n">
-        <v>86.35429072184765</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1340,12 +1240,6 @@
       <c r="B17" t="n">
         <v>23</v>
       </c>
-      <c r="C17" t="n">
-        <v>-41.22751276521442</v>
-      </c>
-      <c r="D17" t="n">
-        <v>90.47717844141401</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1354,12 +1248,6 @@
       <c r="B18" t="n">
         <v>24</v>
       </c>
-      <c r="C18" t="n">
-        <v>-41.74389874319579</v>
-      </c>
-      <c r="D18" t="n">
-        <v>95.25360401624272</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1368,12 +1256,6 @@
       <c r="B19" t="n">
         <v>25</v>
       </c>
-      <c r="C19" t="n">
-        <v>-42.51503244873866</v>
-      </c>
-      <c r="D19" t="n">
-        <v>91.15622805058612</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1382,12 +1264,6 @@
       <c r="B20" t="n">
         <v>26</v>
       </c>
-      <c r="C20" t="n">
-        <v>-41.02365396066121</v>
-      </c>
-      <c r="D20" t="n">
-        <v>88.00285007675129</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1396,12 +1272,6 @@
       <c r="B21" t="n">
         <v>26</v>
       </c>
-      <c r="C21" t="n">
-        <v>-39.42874052424613</v>
-      </c>
-      <c r="D21" t="n">
-        <v>94.51086558380278</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1410,12 +1280,6 @@
       <c r="B22" t="n">
         <v>27</v>
       </c>
-      <c r="C22" t="n">
-        <v>-40.48261188923593</v>
-      </c>
-      <c r="D22" t="n">
-        <v>93.01467670242556</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1424,12 +1288,6 @@
       <c r="B23" t="n">
         <v>28</v>
       </c>
-      <c r="C23" t="n">
-        <v>-33.9570665493616</v>
-      </c>
-      <c r="D23" t="n">
-        <v>92.64828313783755</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1438,12 +1296,6 @@
       <c r="B24" t="n">
         <v>29</v>
       </c>
-      <c r="C24" t="n">
-        <v>-33.63269139541328</v>
-      </c>
-      <c r="D24" t="n">
-        <v>98.39970051705647</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1452,12 +1304,6 @@
       <c r="B25" t="n">
         <v>31</v>
       </c>
-      <c r="C25" t="n">
-        <v>-37.29502044554864</v>
-      </c>
-      <c r="D25" t="n">
-        <v>98.00832298852691</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1466,12 +1312,6 @@
       <c r="B26" t="n">
         <v>32</v>
       </c>
-      <c r="C26" t="n">
-        <v>-32.21429094870361</v>
-      </c>
-      <c r="D26" t="n">
-        <v>107.6921133523559</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1480,12 +1320,6 @@
       <c r="B27" t="n">
         <v>33</v>
       </c>
-      <c r="C27" t="n">
-        <v>-38.12970523791322</v>
-      </c>
-      <c r="D27" t="n">
-        <v>94.54010196235446</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1494,12 +1328,6 @@
       <c r="B28" t="n">
         <v>34</v>
       </c>
-      <c r="C28" t="n">
-        <v>-30.81913415069404</v>
-      </c>
-      <c r="D28" t="n">
-        <v>98.26848875126881</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1508,12 +1336,6 @@
       <c r="B29" t="n">
         <v>35</v>
       </c>
-      <c r="C29" t="n">
-        <v>-31.01217754231835</v>
-      </c>
-      <c r="D29" t="n">
-        <v>108.6347826308741</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1522,12 +1344,6 @@
       <c r="B30" t="n">
         <v>36</v>
       </c>
-      <c r="C30" t="n">
-        <v>-30.49235340279209</v>
-      </c>
-      <c r="D30" t="n">
-        <v>102.9487808956994</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1536,12 +1352,6 @@
       <c r="B31" t="n">
         <v>38</v>
       </c>
-      <c r="C31" t="n">
-        <v>-30.23083586470615</v>
-      </c>
-      <c r="D31" t="n">
-        <v>107.3409166031561</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1550,12 +1360,6 @@
       <c r="B32" t="n">
         <v>39</v>
       </c>
-      <c r="C32" t="n">
-        <v>-30.35606462836303</v>
-      </c>
-      <c r="D32" t="n">
-        <v>109.3147430975068</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1564,12 +1368,6 @@
       <c r="B33" t="n">
         <v>41</v>
       </c>
-      <c r="C33" t="n">
-        <v>-31.02179409760469</v>
-      </c>
-      <c r="D33" t="n">
-        <v>104.1576471984174</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1578,12 +1376,6 @@
       <c r="B34" t="n">
         <v>46</v>
       </c>
-      <c r="C34" t="n">
-        <v>-24.51241379197113</v>
-      </c>
-      <c r="D34" t="n">
-        <v>116.047044328333</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1592,12 +1384,6 @@
       <c r="B35" t="n">
         <v>51</v>
       </c>
-      <c r="C35" t="n">
-        <v>-9.184015737809762</v>
-      </c>
-      <c r="D35" t="n">
-        <v>117.0135003587168</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1606,12 +1392,6 @@
       <c r="B36" t="n">
         <v>52</v>
       </c>
-      <c r="C36" t="n">
-        <v>-17.61786820833674</v>
-      </c>
-      <c r="D36" t="n">
-        <v>116.8314810150924</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1620,12 +1400,6 @@
       <c r="B37" t="n">
         <v>53</v>
       </c>
-      <c r="C37" t="n">
-        <v>-17.57403782060511</v>
-      </c>
-      <c r="D37" t="n">
-        <v>118.0028512082258</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1634,12 +1408,6 @@
       <c r="B38" t="n">
         <v>54</v>
       </c>
-      <c r="C38" t="n">
-        <v>-14.9665779676802</v>
-      </c>
-      <c r="D38" t="n">
-        <v>125.0548046005801</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1648,12 +1416,6 @@
       <c r="B39" t="n">
         <v>54</v>
       </c>
-      <c r="C39" t="n">
-        <v>-11.95238873996949</v>
-      </c>
-      <c r="D39" t="n">
-        <v>121.5751688052979</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1662,12 +1424,6 @@
       <c r="B40" t="n">
         <v>55</v>
       </c>
-      <c r="C40" t="n">
-        <v>-9.672182541703661</v>
-      </c>
-      <c r="D40" t="n">
-        <v>116.1979755336844</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1676,12 +1432,6 @@
       <c r="B41" t="n">
         <v>57</v>
       </c>
-      <c r="C41" t="n">
-        <v>-9.891720196945494</v>
-      </c>
-      <c r="D41" t="n">
-        <v>123.7649168243463</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1690,12 +1440,6 @@
       <c r="B42" t="n">
         <v>58</v>
       </c>
-      <c r="C42" t="n">
-        <v>-11.29081800858543</v>
-      </c>
-      <c r="D42" t="n">
-        <v>124.1621458594554</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1704,12 +1448,6 @@
       <c r="B43" t="n">
         <v>58</v>
       </c>
-      <c r="C43" t="n">
-        <v>-6.636912765887504</v>
-      </c>
-      <c r="D43" t="n">
-        <v>129.4023938469066</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1718,12 +1456,6 @@
       <c r="B44" t="n">
         <v>59</v>
       </c>
-      <c r="C44" t="n">
-        <v>-9.439973593954162</v>
-      </c>
-      <c r="D44" t="n">
-        <v>126.3139642217555</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1732,12 +1464,6 @@
       <c r="B45" t="n">
         <v>60</v>
       </c>
-      <c r="C45" t="n">
-        <v>-4.694744908005594</v>
-      </c>
-      <c r="D45" t="n">
-        <v>124.8272430951001</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1746,12 +1472,6 @@
       <c r="B46" t="n">
         <v>61</v>
       </c>
-      <c r="C46" t="n">
-        <v>-6.522013724947867</v>
-      </c>
-      <c r="D46" t="n">
-        <v>130.5346266668779</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1760,12 +1480,6 @@
       <c r="B47" t="n">
         <v>62</v>
       </c>
-      <c r="C47" t="n">
-        <v>-8.756987495648501</v>
-      </c>
-      <c r="D47" t="n">
-        <v>124.7777774517368</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1774,12 +1488,6 @@
       <c r="B48" t="n">
         <v>63</v>
       </c>
-      <c r="C48" t="n">
-        <v>-4.150890099717522</v>
-      </c>
-      <c r="D48" t="n">
-        <v>122.1038754121277</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1788,12 +1496,6 @@
       <c r="B49" t="n">
         <v>63</v>
       </c>
-      <c r="C49" t="n">
-        <v>-3.640570599332932</v>
-      </c>
-      <c r="D49" t="n">
-        <v>127.3912473686233</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1802,12 +1504,6 @@
       <c r="B50" t="n">
         <v>64</v>
       </c>
-      <c r="C50" t="n">
-        <v>-5.110381314748742</v>
-      </c>
-      <c r="D50" t="n">
-        <v>135.7411233796234</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1816,12 +1512,6 @@
       <c r="B51" t="n">
         <v>70</v>
       </c>
-      <c r="C51" t="n">
-        <v>6.11513133627529</v>
-      </c>
-      <c r="D51" t="n">
-        <v>131.2550253383951</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1830,12 +1520,6 @@
       <c r="B52" t="n">
         <v>79</v>
       </c>
-      <c r="C52" t="n">
-        <v>10.7251693322595</v>
-      </c>
-      <c r="D52" t="n">
-        <v>145.9299625420225</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1844,12 +1528,6 @@
       <c r="B53" t="n">
         <v>80</v>
       </c>
-      <c r="C53" t="n">
-        <v>18.01614202416655</v>
-      </c>
-      <c r="D53" t="n">
-        <v>151.087284927588</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1858,12 +1536,6 @@
       <c r="B54" t="n">
         <v>81</v>
       </c>
-      <c r="C54" t="n">
-        <v>12.09844661493914</v>
-      </c>
-      <c r="D54" t="n">
-        <v>142.700126388673</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1872,12 +1544,6 @@
       <c r="B55" t="n">
         <v>81</v>
       </c>
-      <c r="C55" t="n">
-        <v>13.73843893004617</v>
-      </c>
-      <c r="D55" t="n">
-        <v>151.0994423346184</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1886,12 +1552,6 @@
       <c r="B56" t="n">
         <v>82</v>
       </c>
-      <c r="C56" t="n">
-        <v>15.81345654696508</v>
-      </c>
-      <c r="D56" t="n">
-        <v>146.7344620146449</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1900,12 +1560,6 @@
       <c r="B57" t="n">
         <v>83</v>
       </c>
-      <c r="C57" t="n">
-        <v>15.49251450104773</v>
-      </c>
-      <c r="D57" t="n">
-        <v>150.0732993435449</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1914,12 +1568,6 @@
       <c r="B58" t="n">
         <v>84</v>
       </c>
-      <c r="C58" t="n">
-        <v>18.80795236518971</v>
-      </c>
-      <c r="D58" t="n">
-        <v>153.32156879878</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1928,12 +1576,6 @@
       <c r="B59" t="n">
         <v>85</v>
       </c>
-      <c r="C59" t="n">
-        <v>15.65951206529355</v>
-      </c>
-      <c r="D59" t="n">
-        <v>146.9287290879855</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1942,12 +1584,6 @@
       <c r="B60" t="n">
         <v>85</v>
       </c>
-      <c r="C60" t="n">
-        <v>18.80461498607993</v>
-      </c>
-      <c r="D60" t="n">
-        <v>151.4064603193542</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1956,12 +1592,6 @@
       <c r="B61" t="n">
         <v>86</v>
       </c>
-      <c r="C61" t="n">
-        <v>16.81090055113378</v>
-      </c>
-      <c r="D61" t="n">
-        <v>155.5834934161426</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -1970,12 +1600,6 @@
       <c r="B62" t="n">
         <v>87</v>
       </c>
-      <c r="C62" t="n">
-        <v>21.29948982718029</v>
-      </c>
-      <c r="D62" t="n">
-        <v>150.5294107107808</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -1983,12 +1607,6 @@
       </c>
       <c r="B63" t="n">
         <v>88</v>
-      </c>
-      <c r="C63" t="n">
-        <v>19.26758406067586</v>
-      </c>
-      <c r="D63" t="n">
-        <v>153.9812877518465</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0927959GD_po_data.xlsx
+++ b/po_analysis_by_asin/B0927959GD_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -883,6 +883,30 @@
         <v>8</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -894,7 +918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,6 +1106,14 @@
         <v>96</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1093,7 +1125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1118,7 +1150,7 @@
         <v>44983.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -1126,7 +1158,7 @@
         <v>44990.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -1134,7 +1166,7 @@
         <v>44997.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -1142,7 +1174,7 @@
         <v>45004.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -1150,7 +1182,7 @@
         <v>45011.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -1158,7 +1190,7 @@
         <v>45018.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1166,7 +1198,7 @@
         <v>45025.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1174,7 +1206,7 @@
         <v>45039.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1182,7 +1214,7 @@
         <v>45046.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -1190,7 +1222,7 @@
         <v>45053.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -1198,7 +1230,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1206,7 +1238,7 @@
         <v>45109.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -1214,7 +1246,7 @@
         <v>45116.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -1222,7 +1254,7 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1230,7 +1262,7 @@
         <v>45137.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -1238,7 +1270,7 @@
         <v>45144.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -1246,7 +1278,7 @@
         <v>45151.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -1254,7 +1286,7 @@
         <v>45158.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -1270,7 +1302,7 @@
         <v>45172.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -1302,7 +1334,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1342,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1318,7 +1350,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -1326,7 +1358,7 @@
         <v>45235.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -1334,7 +1366,7 @@
         <v>45242.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -1342,7 +1374,7 @@
         <v>45249.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -1350,7 +1382,7 @@
         <v>45270.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -1358,7 +1390,7 @@
         <v>45277.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -1366,7 +1398,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1406,7 @@
         <v>45340.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
@@ -1382,7 +1414,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
@@ -1390,7 +1422,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
@@ -1398,7 +1430,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
@@ -1406,7 +1438,7 @@
         <v>45403.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39">
@@ -1414,7 +1446,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40">
@@ -1422,7 +1454,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41">
@@ -1430,7 +1462,7 @@
         <v>45431.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
@@ -1438,7 +1470,7 @@
         <v>45438.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43">
@@ -1446,7 +1478,7 @@
         <v>45445.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44">
@@ -1454,7 +1486,7 @@
         <v>45452.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45">
@@ -1462,7 +1494,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -1470,7 +1502,7 @@
         <v>45466.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
@@ -1478,7 +1510,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48">
@@ -1486,7 +1518,7 @@
         <v>45480.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49">
@@ -1494,7 +1526,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50">
@@ -1502,7 +1534,7 @@
         <v>45494.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51">
@@ -1510,7 +1542,7 @@
         <v>45543.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52">
@@ -1518,7 +1550,7 @@
         <v>45620.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53">
@@ -1526,7 +1558,7 @@
         <v>45627.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54">
@@ -1534,7 +1566,7 @@
         <v>45634.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55">
@@ -1542,71 +1574,95 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>88</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
